--- a/biology/Histoire de la zoologie et de la botanique/Léon_Binet/Léon_Binet.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Léon_Binet/Léon_Binet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Binet</t>
+          <t>Léon_Binet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Léon René Binet, né le 11 octobre 1891 à Saint-Martin-Chennetron (Seine-et-Marne) et mort le 10 juillet 1971 dans le 8e arrondissement de Paris, est un médecin et professeur de physiologie français, spécialiste de la réanimation cardiaque.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Binet</t>
+          <t>Léon_Binet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,25 +525,17 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille
-Son père est Henri Marie Binet, instituteur.
-Le 9 octobre 1922, à Paris 7e, Léon Binet épouse Anne-Marie Pradeau. De ce mariage naissent trois fils[1] :
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Son père est Henri Marie Binet, instituteur.
+Le 9 octobre 1922, à Paris 7e, Léon Binet épouse Anne-Marie Pradeau. De ce mariage naissent trois fils :
 Jean-Paul Binet, né en 1924, professeur de pathologie chirurgicale à la faculté de médecine de Paris en 1968.
 Claude Binet, né en 1926, énarque de la promotion 1952.
-Jacques-Louis Binet, né en 1932, professeur de médecine à la faculté de médecine de Paris en 1976.
-Formation et carrière
-Léon Binet fait ses études secondaires au collège de Provins et sa médecine à Paris. Il est externe des hôpitaux en 1911, interne en 1913, docteur en médecine en 1918 (études interrompues par la guerre) et docteur ès sciences en 1929[1].
-À la faculté de médecine de Paris, il est successivement  préparateur des travaux pratiques de physiologie en 1912 ; chef provisoire des travaux de médecine expérimentale en 1916-1918 ; chef   de laboratoire de pathologie expérimentale et comparée ; chargé de cours de physiologie en 1927 puis chef des travaux de physiologie en 1928 ; professeur de physiologie de 1931 à 1968 et doyen de la faculté de 1946 jusqu'à 1968 où il est nommé doyen et professeur honoraire[1].
-Il est médecin des hôpitaux en 1925 ;  médecin chef de service à l'Hôpital Sainte-Périne (1931) puis à l'Hôpital Necker (1932). En 1957, il est nommé médecin honoraire des Hôpitaux[1].
-À partir de 1923, Léon Binet profite de ses vacances dans la maison de sa belle-famille à Saint-Priest-la-Feuille (Creuse) pour rédiger de nombreux livres d'histoire naturelle (Scènes de la vie animale, Au bord de l'étang, Cent pas autour de ma maison, Creuse mon beau pays, Leçons de biologie dans un parc), étudiant et observant la campagne creusoise.
-Il est l'un des cofondateurs de l’Association Claude-Bernard avec Gabriel Richet.
-Travaux
-Ses travaux portent sur des sujets variés. Dans sa thèse de doctorat ès sciences, il étudie la rate comme organe réservoir de sang[1].
-Léon Binet s'est  surtout consacré à l'exploration fonctionnelle de la respiration et à la lutte contre l'asphyxie (oxygénothérapie). Il a mis au point les techniques de la réanimation des blessés avec leur cortège d'agents correcteurs (transfusion sanguine, « sérums artificiels »)[1] .
-Pénétrant dans les mécanismes intimes de la vie, il étudie l'équilibre hydrominéral, la respiration tissulaire, les oxydoréductions cellulaires, le rôle du glutathion. Grand patron universitaire de la physiologie, Il publie, avec son maître le doyen Roger, un célèbre Traité de physiologie normale et pathologique en 12 volumes[1], parus de 1926 à 1940.
-Mort
-Il meurt le 10 juillet 1971 dans le 8e arrondissement de Paris[2], et est inhumé au cimetière du Montparnasse (division 28).
-</t>
+Jacques-Louis Binet, né en 1932, professeur de médecine à la faculté de médecine de Paris en 1976.</t>
         </is>
       </c>
     </row>
@@ -541,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9on_Binet</t>
+          <t>Léon_Binet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,10 +560,129 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Formation et carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Léon Binet fait ses études secondaires au collège de Provins et sa médecine à Paris. Il est externe des hôpitaux en 1911, interne en 1913, docteur en médecine en 1918 (études interrompues par la guerre) et docteur ès sciences en 1929.
+À la faculté de médecine de Paris, il est successivement  préparateur des travaux pratiques de physiologie en 1912 ; chef provisoire des travaux de médecine expérimentale en 1916-1918 ; chef   de laboratoire de pathologie expérimentale et comparée ; chargé de cours de physiologie en 1927 puis chef des travaux de physiologie en 1928 ; professeur de physiologie de 1931 à 1968 et doyen de la faculté de 1946 jusqu'à 1968 où il est nommé doyen et professeur honoraire.
+Il est médecin des hôpitaux en 1925 ;  médecin chef de service à l'Hôpital Sainte-Périne (1931) puis à l'Hôpital Necker (1932). En 1957, il est nommé médecin honoraire des Hôpitaux.
+À partir de 1923, Léon Binet profite de ses vacances dans la maison de sa belle-famille à Saint-Priest-la-Feuille (Creuse) pour rédiger de nombreux livres d'histoire naturelle (Scènes de la vie animale, Au bord de l'étang, Cent pas autour de ma maison, Creuse mon beau pays, Leçons de biologie dans un parc), étudiant et observant la campagne creusoise.
+Il est l'un des cofondateurs de l’Association Claude-Bernard avec Gabriel Richet.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Léon_Binet</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9on_Binet</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Travaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses travaux portent sur des sujets variés. Dans sa thèse de doctorat ès sciences, il étudie la rate comme organe réservoir de sang.
+Léon Binet s'est  surtout consacré à l'exploration fonctionnelle de la respiration et à la lutte contre l'asphyxie (oxygénothérapie). Il a mis au point les techniques de la réanimation des blessés avec leur cortège d'agents correcteurs (transfusion sanguine, « sérums artificiels ») .
+Pénétrant dans les mécanismes intimes de la vie, il étudie l'équilibre hydrominéral, la respiration tissulaire, les oxydoréductions cellulaires, le rôle du glutathion. Grand patron universitaire de la physiologie, Il publie, avec son maître le doyen Roger, un célèbre Traité de physiologie normale et pathologique en 12 volumes, parus de 1926 à 1940.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Léon_Binet</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9on_Binet</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mort</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il meurt le 10 juillet 1971 dans le 8e arrondissement de Paris, et est inhumé au cimetière du Montparnasse (division 28).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Léon_Binet</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9on_Binet</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Titres et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Léon Binet était membre de plusieurs sociétés savantes :
 Société de biologie, trésorier.
@@ -567,35 +690,37 @@
 Académie des sciences  (1942-1961), président en 1957.
 Académie nationale de chirurgie (1940).
 Académie nationale de médecine (section des sciences biologiques, 1939, Président pour 1959).
-Docteur honoris causa de l'université Laval en 1952[3].</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>L%C3%A9on_Binet</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+Docteur honoris causa de l'université Laval en 1952.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Léon_Binet</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/L%C3%A9on_Binet</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Décorations et hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Croix de Guerre 1914-1918.
 Grand-Croix de la Légion d'Honneur (1954).
@@ -609,38 +734,77 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>L%C3%A9on_Binet</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Léon_Binet</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/L%C3%A9on_Binet</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Ouvrages scientifiques
-Traité de physiologie normale et pathologique, Paris, Masson, 1926-1940, en douze volumes.
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Ouvrages scientifiques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Traité de physiologie normale et pathologique, Paris, Masson, 1926-1940, en douze volumes.
 Leçons de physiologie médico-chirurgicale, Paris, Masson, 1935-1937.
-Hémorragies, chocs, asphyxies, Paris, Masson, 1941.
-Histoire naturelle et vulgarisation
-La Vie de la mante religieuse, 1931
+Hémorragies, chocs, asphyxies, Paris, Masson, 1941.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Léon_Binet</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%C3%A9on_Binet</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres et publications</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Histoire naturelle et vulgarisation</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>La Vie de la mante religieuse, 1931
 Scènes de la vie animale, 1933
 Nouvelles scènes de la vie animale, 1934
 Autres scènes de la vie animale. Voyage en Amérique du Sud, 1935
